--- a/xlsx/recommend_result.xlsx
+++ b/xlsx/recommend_result.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bigdata\pycharmProject\iptv_git\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41D1FCAE-35DD-4F49-9088-B5197D6416B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,12 +37,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,8 +50,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,15 +104,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -411,13 +470,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.3337066069428891</v>
+        <v>0.33370660694288912</v>
       </c>
       <c r="D2">
-        <v>0.3178101670814077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.31781016708140769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -425,13 +484,13 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.3144590495449949</v>
+        <v>0.31445904954499487</v>
       </c>
       <c r="D3">
         <v>0.3316743690010665</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10</v>
       </c>
@@ -439,13 +498,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.2820436211532716</v>
+        <v>0.28204362115327158</v>
       </c>
       <c r="D4">
-        <v>0.3355847849271241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.33558478492712412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10</v>
       </c>
@@ -453,13 +512,13 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.2512338425381904</v>
+        <v>0.25123384253819042</v>
       </c>
       <c r="D5">
-        <v>0.3800213295414149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.38002132954141488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20</v>
       </c>
@@ -467,13 +526,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.2641039823008849</v>
+        <v>0.26410398230088489</v>
       </c>
       <c r="D6">
-        <v>0.3394952008531816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.33949520085318158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20</v>
       </c>
@@ -484,10 +543,12 @@
         <v>0.2128970163618864</v>
       </c>
       <c r="D7">
-        <v>0.3931745467472449</v>
+        <v>0.39317454674724489</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>